--- a/app/static/Flu09/process_id_status.xlsx
+++ b/app/static/Flu09/process_id_status.xlsx
@@ -25,7 +25,7 @@
     <t>status</t>
   </si>
   <si>
-    <t>{'id': '997d9686-81c2-11ea-9156-acde48001122', 'status': 'PENDING'}</t>
+    <t>{'id': '224bac2a-86e9-11ea-a964-acde48001122', 'status': 'PENDING'}</t>
   </si>
   <si>
     <t>DONE</t>

--- a/app/static/Flu09/process_id_status.xlsx
+++ b/app/static/Flu09/process_id_status.xlsx
@@ -25,7 +25,7 @@
     <t>status</t>
   </si>
   <si>
-    <t>{'id': '224bac2a-86e9-11ea-a964-acde48001122', 'status': 'PENDING'}</t>
+    <t>{'id': '5dafe4b6-873e-11ea-b35c-acde48001122', 'status': 'PENDING'}</t>
   </si>
   <si>
     <t>DONE</t>

--- a/app/static/Flu09/process_id_status.xlsx
+++ b/app/static/Flu09/process_id_status.xlsx
@@ -25,7 +25,7 @@
     <t>status</t>
   </si>
   <si>
-    <t>{'id': '5dafe4b6-873e-11ea-b35c-acde48001122', 'status': 'PENDING'}</t>
+    <t>{'id': 'cb5668d8-89f9-11ea-9ac5-acde48001122', 'status': 'PENDING'}</t>
   </si>
   <si>
     <t>DONE</t>

--- a/app/static/Flu09/process_id_status.xlsx
+++ b/app/static/Flu09/process_id_status.xlsx
@@ -25,7 +25,7 @@
     <t>status</t>
   </si>
   <si>
-    <t>{'id': 'cb5668d8-89f9-11ea-9ac5-acde48001122', 'status': 'PENDING'}</t>
+    <t>{'id': 'cfa0dab6-8bd6-11ea-9f42-acde48001122', 'status': 'PENDING'}</t>
   </si>
   <si>
     <t>DONE</t>

--- a/app/static/Flu09/process_id_status.xlsx
+++ b/app/static/Flu09/process_id_status.xlsx
@@ -25,7 +25,7 @@
     <t>status</t>
   </si>
   <si>
-    <t>{'id': 'cfa0dab6-8bd6-11ea-9f42-acde48001122', 'status': 'PENDING'}</t>
+    <t>{'id': 'b02216ac-8c8d-11ea-86b0-acde48001122', 'status': 'PENDING'}</t>
   </si>
   <si>
     <t>DONE</t>

--- a/app/static/Flu09/process_id_status.xlsx
+++ b/app/static/Flu09/process_id_status.xlsx
@@ -25,7 +25,7 @@
     <t>status</t>
   </si>
   <si>
-    <t>{'id': 'b02216ac-8c8d-11ea-86b0-acde48001122', 'status': 'PENDING'}</t>
+    <t>{'id': '', 'status': 'PENDING'}</t>
   </si>
   <si>
     <t>DONE</t>
